--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H2">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I2">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J2">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N2">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O2">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P2">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q2">
-        <v>1.016017110575447</v>
+        <v>1.08177159125</v>
       </c>
       <c r="R2">
-        <v>1.016017110575447</v>
+        <v>4.327086365</v>
       </c>
       <c r="S2">
-        <v>0.000369036727399194</v>
+        <v>0.0003517468591105637</v>
       </c>
       <c r="T2">
-        <v>0.000369036727399194</v>
+        <v>0.0002350122581454251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H3">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I3">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J3">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N3">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O3">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P3">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q3">
-        <v>10.34306296409867</v>
+        <v>10.94519492875667</v>
       </c>
       <c r="R3">
-        <v>10.34306296409867</v>
+        <v>65.67116957254001</v>
       </c>
       <c r="S3">
-        <v>0.003756797073420292</v>
+        <v>0.003558919433347643</v>
       </c>
       <c r="T3">
-        <v>0.003756797073420292</v>
+        <v>0.00356672563347225</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H4">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I4">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J4">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N4">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O4">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P4">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q4">
-        <v>2.889116480861191</v>
+        <v>3.84395541824</v>
       </c>
       <c r="R4">
-        <v>2.889116480861191</v>
+        <v>23.06373250944</v>
       </c>
       <c r="S4">
-        <v>0.001049382023269497</v>
+        <v>0.00124989346721944</v>
       </c>
       <c r="T4">
-        <v>0.001049382023269497</v>
+        <v>0.00125263500681377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H5">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I5">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J5">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N5">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O5">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P5">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q5">
-        <v>1.984966356357686</v>
+        <v>2.013802223603333</v>
       </c>
       <c r="R5">
-        <v>1.984966356357686</v>
+        <v>12.08281334162</v>
       </c>
       <c r="S5">
-        <v>0.0007209775116216876</v>
+        <v>0.0006548042236936877</v>
       </c>
       <c r="T5">
-        <v>0.0007209775116216876</v>
+        <v>0.0006562404834653182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H6">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I6">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J6">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N6">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O6">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P6">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q6">
-        <v>1.034785208874404</v>
+        <v>1.305247361576667</v>
       </c>
       <c r="R6">
-        <v>1.034785208874404</v>
+        <v>7.83148416946</v>
       </c>
       <c r="S6">
-        <v>0.0003758536574524986</v>
+        <v>0.0004244118291796034</v>
       </c>
       <c r="T6">
-        <v>0.0003758536574524986</v>
+        <v>0.0004253427419849855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H7">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I7">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J7">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N7">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O7">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P7">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q7">
-        <v>100.3597930634414</v>
+        <v>101.37210213361</v>
       </c>
       <c r="R7">
-        <v>100.3597930634414</v>
+        <v>405.4884085344399</v>
       </c>
       <c r="S7">
-        <v>0.0364525845176133</v>
+        <v>0.03296196610758666</v>
       </c>
       <c r="T7">
-        <v>0.0364525845176133</v>
+        <v>0.02202284366502896</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H8">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I8">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J8">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N8">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O8">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P8">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q8">
-        <v>7.578333261727182</v>
+        <v>8.743591917125</v>
       </c>
       <c r="R8">
-        <v>7.578333261727182</v>
+        <v>52.46155150275</v>
       </c>
       <c r="S8">
-        <v>0.00275259469248927</v>
+        <v>0.002843050251152758</v>
       </c>
       <c r="T8">
-        <v>0.00275259469248927</v>
+        <v>0.002849286250489202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H9">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I9">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J9">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N9">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O9">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P9">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q9">
-        <v>77.1474980815758</v>
+        <v>88.46628871058766</v>
       </c>
       <c r="R9">
-        <v>77.1474980815758</v>
+        <v>796.196598395289</v>
       </c>
       <c r="S9">
-        <v>0.02802143775210192</v>
+        <v>0.02876553557406755</v>
       </c>
       <c r="T9">
-        <v>0.02802143775210192</v>
+        <v>0.04324294565278062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H10">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I10">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J10">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N10">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O10">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P10">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q10">
-        <v>21.54952637708428</v>
+        <v>31.069384513856</v>
       </c>
       <c r="R10">
-        <v>21.54952637708428</v>
+        <v>279.624460624704</v>
       </c>
       <c r="S10">
-        <v>0.007827197601719186</v>
+        <v>0.0101024638709722</v>
       </c>
       <c r="T10">
-        <v>0.007827197601719186</v>
+        <v>0.01518693420488458</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H11">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I11">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J11">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N11">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O11">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P11">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q11">
-        <v>14.8055937298881</v>
+        <v>16.27687858269633</v>
       </c>
       <c r="R11">
-        <v>14.8055937298881</v>
+        <v>146.491907244267</v>
       </c>
       <c r="S11">
-        <v>0.005377673073030598</v>
+        <v>0.005292559874836182</v>
       </c>
       <c r="T11">
-        <v>0.005377673073030598</v>
+        <v>0.007956253011258154</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H12">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I12">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J12">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N12">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O12">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P12">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q12">
-        <v>7.718321951009981</v>
+        <v>10.54987057604567</v>
       </c>
       <c r="R12">
-        <v>7.718321951009981</v>
+        <v>94.948835184411</v>
       </c>
       <c r="S12">
-        <v>0.002803441245394828</v>
+        <v>0.003430376494597206</v>
       </c>
       <c r="T12">
-        <v>0.002803441245394828</v>
+        <v>0.005156851119371227</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H13">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I13">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J13">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N13">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O13">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P13">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q13">
-        <v>748.5700289850162</v>
+        <v>819.3562301014089</v>
       </c>
       <c r="R13">
-        <v>748.5700289850162</v>
+        <v>4916.137380608453</v>
       </c>
       <c r="S13">
-        <v>0.271894863630091</v>
+        <v>0.2664203633761703</v>
       </c>
       <c r="T13">
-        <v>0.271894863630091</v>
+        <v>0.2670047347598822</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H14">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I14">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J14">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N14">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O14">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P14">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q14">
-        <v>6.05531334814075</v>
+        <v>7.038296962958333</v>
       </c>
       <c r="R14">
-        <v>6.05531334814075</v>
+        <v>42.22978177775</v>
       </c>
       <c r="S14">
-        <v>0.002199404909735111</v>
+        <v>0.002288559683238967</v>
       </c>
       <c r="T14">
-        <v>0.002199404909735111</v>
+        <v>0.002293579452643431</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H15">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I15">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J15">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N15">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O15">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P15">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q15">
-        <v>61.64314220229475</v>
+        <v>71.21238240046544</v>
       </c>
       <c r="R15">
-        <v>61.64314220229475</v>
+        <v>640.911441604189</v>
       </c>
       <c r="S15">
-        <v>0.02238996098407611</v>
+        <v>0.02315528716205239</v>
       </c>
       <c r="T15">
-        <v>0.02238996098407611</v>
+        <v>0.03480911459982847</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H16">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I16">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J16">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N16">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O16">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P16">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q16">
-        <v>17.21871158349267</v>
+        <v>25.00980795278933</v>
       </c>
       <c r="R16">
-        <v>17.21871158349267</v>
+        <v>225.088271575104</v>
       </c>
       <c r="S16">
-        <v>0.006254163346918234</v>
+        <v>0.008132143111825359</v>
       </c>
       <c r="T16">
-        <v>0.006254163346918234</v>
+        <v>0.01222497045882649</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H17">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I17">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J17">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N17">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O17">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P17">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q17">
-        <v>11.8301091075675</v>
+        <v>13.10233896788522</v>
       </c>
       <c r="R17">
-        <v>11.8301091075675</v>
+        <v>117.921050710967</v>
       </c>
       <c r="S17">
-        <v>0.004296920499064685</v>
+        <v>0.00426033241789069</v>
       </c>
       <c r="T17">
-        <v>0.004296920499064685</v>
+        <v>0.006404515665465702</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H18">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I18">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J18">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N18">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O18">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P18">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q18">
-        <v>6.167168468459075</v>
+        <v>8.492290438390111</v>
       </c>
       <c r="R18">
-        <v>6.167168468459075</v>
+        <v>76.430613945511</v>
       </c>
       <c r="S18">
-        <v>0.002240032815619233</v>
+        <v>0.00276133752496377</v>
       </c>
       <c r="T18">
-        <v>0.002240032815619233</v>
+        <v>0.004151091441128599</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H19">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I19">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J19">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N19">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O19">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P19">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q19">
-        <v>598.1296852466472</v>
+        <v>659.5541649889756</v>
       </c>
       <c r="R19">
-        <v>598.1296852466472</v>
+        <v>3957.324989933853</v>
       </c>
       <c r="S19">
-        <v>0.2172520711572619</v>
+        <v>0.2144594180737252</v>
       </c>
       <c r="T19">
-        <v>0.2172520711572619</v>
+        <v>0.2149298173529006</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H20">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I20">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J20">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N20">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O20">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P20">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q20">
-        <v>4.624848882242996</v>
+        <v>4.991117355583333</v>
       </c>
       <c r="R20">
-        <v>4.624848882242996</v>
+        <v>29.9467041335</v>
       </c>
       <c r="S20">
-        <v>0.001679833024910497</v>
+        <v>0.001622902530884576</v>
       </c>
       <c r="T20">
-        <v>0.001679833024910497</v>
+        <v>0.001626462235501688</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H21">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I21">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J21">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N21">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O21">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P21">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q21">
-        <v>47.08100158016832</v>
+        <v>50.49934090618511</v>
       </c>
       <c r="R21">
-        <v>47.08100158016832</v>
+        <v>454.494068155666</v>
       </c>
       <c r="S21">
-        <v>0.01710071470743347</v>
+        <v>0.01642027272169246</v>
       </c>
       <c r="T21">
-        <v>0.01710071470743347</v>
+        <v>0.02468443388024769</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H22">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I22">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J22">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N22">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O22">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P22">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q22">
-        <v>13.15108474857569</v>
+        <v>17.73538217979733</v>
       </c>
       <c r="R22">
-        <v>13.15108474857569</v>
+        <v>159.618439618176</v>
       </c>
       <c r="S22">
-        <v>0.004776723961484344</v>
+        <v>0.005766804219419988</v>
       </c>
       <c r="T22">
-        <v>0.004776723961484344</v>
+        <v>0.00866917985269211</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H23">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I23">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J23">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N23">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O23">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P23">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q23">
-        <v>9.035447670060771</v>
+        <v>9.291354395177555</v>
       </c>
       <c r="R23">
-        <v>9.035447670060771</v>
+        <v>83.622189556598</v>
       </c>
       <c r="S23">
-        <v>0.003281846342978782</v>
+        <v>0.003021159690106473</v>
       </c>
       <c r="T23">
-        <v>0.003281846342978782</v>
+        <v>0.004541679537002004</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H24">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I24">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J24">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N24">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O24">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P24">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q24">
-        <v>4.710280138799884</v>
+        <v>6.022198042903778</v>
       </c>
       <c r="R24">
-        <v>4.710280138799884</v>
+        <v>54.199782386134</v>
       </c>
       <c r="S24">
-        <v>0.001710863281201652</v>
+        <v>0.001958166828993428</v>
       </c>
       <c r="T24">
-        <v>0.001710863281201652</v>
+        <v>0.002943692862843053</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H25">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I25">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J25">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N25">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O25">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P25">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q25">
-        <v>456.8317520840892</v>
+        <v>467.7143145776126</v>
       </c>
       <c r="R25">
-        <v>456.8317520840892</v>
+        <v>2806.285887465676</v>
       </c>
       <c r="S25">
-        <v>0.1659299759879716</v>
+        <v>0.1520811254838223</v>
       </c>
       <c r="T25">
-        <v>0.1659299759879716</v>
+        <v>0.1524147030550306</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H26">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I26">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J26">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N26">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O26">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P26">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q26">
-        <v>0.7279853207529234</v>
+        <v>0.8706615354583335</v>
       </c>
       <c r="R26">
-        <v>0.7279853207529234</v>
+        <v>5.22396921275</v>
       </c>
       <c r="S26">
-        <v>0.0002644181063182615</v>
+        <v>0.0002831027020149153</v>
       </c>
       <c r="T26">
-        <v>0.0002644181063182615</v>
+        <v>0.0002837236647506934</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H27">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I27">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J27">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N27">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O27">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P27">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q27">
-        <v>7.410896855095753</v>
+        <v>8.809216566272111</v>
       </c>
       <c r="R27">
-        <v>7.410896855095753</v>
+        <v>79.28294909644902</v>
       </c>
       <c r="S27">
-        <v>0.002691778606906078</v>
+        <v>0.002864388641256954</v>
       </c>
       <c r="T27">
-        <v>0.002691778606906078</v>
+        <v>0.004306007166923112</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H28">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I28">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J28">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N28">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O28">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P28">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q28">
-        <v>2.070077724203948</v>
+        <v>3.093799239829334</v>
       </c>
       <c r="R28">
-        <v>2.070077724203948</v>
+        <v>27.844193158464</v>
       </c>
       <c r="S28">
-        <v>0.0007518915782525774</v>
+        <v>0.001005974065256373</v>
       </c>
       <c r="T28">
-        <v>0.0007518915782525774</v>
+        <v>0.001512270881241822</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H29">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I29">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J29">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N29">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O29">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P29">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q29">
-        <v>1.422246096621724</v>
+        <v>1.620804382638556</v>
       </c>
       <c r="R29">
-        <v>1.422246096621724</v>
+        <v>14.587239443747</v>
       </c>
       <c r="S29">
-        <v>0.0005165868168856828</v>
+        <v>0.0005270177692196336</v>
       </c>
       <c r="T29">
-        <v>0.0005165868168856828</v>
+        <v>0.0007922606097054405</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H30">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I30">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J30">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N30">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O30">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P30">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q30">
-        <v>0.7414328305614447</v>
+        <v>1.050525527916778</v>
       </c>
       <c r="R30">
-        <v>0.7414328305614447</v>
+        <v>9.454729751251001</v>
       </c>
       <c r="S30">
-        <v>0.0002693024974960779</v>
+        <v>0.0003415869466799454</v>
       </c>
       <c r="T30">
-        <v>0.0002693024974960779</v>
+        <v>0.0005135042847697429</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H31">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I31">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J31">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N31">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O31">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P31">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q31">
-        <v>71.90868675686647</v>
+        <v>81.58911808203567</v>
       </c>
       <c r="R31">
-        <v>71.90868675686647</v>
+        <v>489.534708492214</v>
       </c>
       <c r="S31">
-        <v>0.02611860189765692</v>
+        <v>0.02652936743309671</v>
       </c>
       <c r="T31">
-        <v>0.02611860189765692</v>
+        <v>0.02658755744139571</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H32">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I32">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J32">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N32">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O32">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P32">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q32">
-        <v>3.778095955273882</v>
+        <v>4.869548468875</v>
       </c>
       <c r="R32">
-        <v>3.778095955273882</v>
+        <v>19.4781938755</v>
       </c>
       <c r="S32">
-        <v>0.001372276266434857</v>
+        <v>0.001583373415486183</v>
       </c>
       <c r="T32">
-        <v>0.001372276266434857</v>
+        <v>0.001057897610803903</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H33">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I33">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J33">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N33">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O33">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P33">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q33">
-        <v>38.46104946763345</v>
+        <v>49.26932601851634</v>
       </c>
       <c r="R33">
-        <v>38.46104946763345</v>
+        <v>295.6159561110981</v>
       </c>
       <c r="S33">
-        <v>0.01396978424884508</v>
+        <v>0.01602032334522863</v>
       </c>
       <c r="T33">
-        <v>0.01396978424884508</v>
+        <v>0.01605546262062834</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H34">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I34">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J34">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N34">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O34">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P34">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q34">
-        <v>10.74328293986564</v>
+        <v>17.303400618688</v>
       </c>
       <c r="R34">
-        <v>10.74328293986564</v>
+        <v>103.820403712128</v>
       </c>
       <c r="S34">
-        <v>0.003902164576151793</v>
+        <v>0.005626341890271274</v>
       </c>
       <c r="T34">
-        <v>0.003902164576151793</v>
+        <v>0.005638682813292283</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H35">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I35">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J35">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N35">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O35">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P35">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q35">
-        <v>7.381168372314359</v>
+        <v>9.065044427015668</v>
       </c>
       <c r="R35">
-        <v>7.381168372314359</v>
+        <v>54.39026656209401</v>
       </c>
       <c r="S35">
-        <v>0.002680980656869612</v>
+        <v>0.002947573157486983</v>
       </c>
       <c r="T35">
-        <v>0.002680980656869612</v>
+        <v>0.002954038419311587</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H36">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I36">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J36">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N36">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O36">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P36">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q36">
-        <v>3.847885799887141</v>
+        <v>5.875515074050334</v>
       </c>
       <c r="R36">
-        <v>3.847885799887141</v>
+        <v>35.253090444302</v>
       </c>
       <c r="S36">
-        <v>0.001397625264590201</v>
+        <v>0.0019104716648788</v>
       </c>
       <c r="T36">
-        <v>0.001397625264590201</v>
+        <v>0.001914662128986723</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H37">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I37">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J37">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N37">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O37">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P37">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q37">
-        <v>373.1914790592057</v>
+        <v>456.322174407407</v>
       </c>
       <c r="R37">
-        <v>373.1914790592057</v>
+        <v>1825.288697629628</v>
       </c>
       <c r="S37">
-        <v>0.1355502389593342</v>
+        <v>0.1483768781585743</v>
       </c>
       <c r="T37">
-        <v>0.1355502389593342</v>
+        <v>0.09913488717650334</v>
       </c>
     </row>
   </sheetData>
